--- a/reports/resnet18_23_no_MMTM/prediction/5/prediction_test_5.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/5/prediction_test_5.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
